--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure4.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure4.xlsx
@@ -34,25 +34,22 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>diag_1</t>
+    <t>admission_type_id</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
-    <t>age</t>
+    <t>diabetesmed</t>
   </si>
   <si>
     <t>a1cresult</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>age</t>
   </si>
   <si>
     <t>admission_source_id</t>
@@ -64,10 +61,13 @@
     <t>race</t>
   </si>
   <si>
-    <t>discharge_disposition_id</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
-    <t>diabetesmed</t>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.303224290173514</v>
+        <v>1.308629778805678</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.295225838128056</v>
+        <v>1.300505462812133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.278202963891654</v>
+        <v>1.245399698154478</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.24133397994692</v>
+        <v>1.241970142300715</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>1.183215956619923</v>
+        <v>1.189783348170756</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1.181620249951032</v>
+        <v>1.18938393563284</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.181171142921402</v>
+        <v>1.181620249951032</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>1.169931359773237</v>
+        <v>1.17095279864109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.165019257581752</v>
+        <v>1.169584222936949</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164502616086257</v>
+        <v>1.165204758066736</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1.161307973879768</v>
+        <v>1.164188407663985</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.161029213200222</v>
+        <v>1.161748891011461</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.154700538379251</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.145881092548817</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.14270955363423</v>
+        <v>1.144571390574773</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1.134546815145441</v>
+        <v>1.135789768083086</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.091849880211308</v>
+        <v>1.09881690461729</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9832021124973652</v>
+        <v>0.9829056731658532</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.977531344452031</v>
+        <v>0.9787270614056458</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9752490001477033</v>
+        <v>0.975858816638978</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9733007278626722</v>
+        <v>0.9757895248507168</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9662684922646053</v>
+        <v>0.9692021116394754</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9658214956318534</v>
+        <v>0.9684367309178676</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9650113963373557</v>
+        <v>0.9670656275663073</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9648131971055135</v>
+        <v>0.9665147365676103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9644638195353827</v>
+        <v>0.9662161069898294</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9642815326234753</v>
+        <v>0.9654642195035354</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9641204011671445</v>
+        <v>0.9653385114923908</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9624087607614127</v>
+        <v>0.9644373831941311</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1016,16 +1016,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9448387727614749</v>
+        <v>0.9391378130287908</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1033,16 +1033,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.9362035157405973</v>
+        <v>0.8416254115301731</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.8092210511828145</v>
+        <v>0.7299963950884315</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7700220436926838</v>
+        <v>0.7008766440504625</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7484811885651198</v>
+        <v>0.6758422518943872</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,16 +1101,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6850999086433979</v>
+        <v>0.6723186624666379</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6285700970718165</v>
+        <v>0.6613544970158621</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5290770399921926</v>
+        <v>0.6356417261637282</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5244044240850758</v>
+        <v>0.6164414002968976</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1172,13 +1172,13 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5200869918715793</v>
+        <v>0.5907315215645329</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5194245971178972</v>
+        <v>0.5857420586254906</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.4884500086981308</v>
+        <v>0.5796368138574671</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.4884500086981308</v>
+        <v>0.5532627390105307</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.4853750842709972</v>
+        <v>0.53813823519705</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.4771187236136979</v>
+        <v>0.5286104835004578</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1274,13 +1274,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4746311465493234</v>
+        <v>0.5174612226452618</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.4723101979387308</v>
+        <v>0.4913809081230532</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1314,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="E50">
-        <v>0.4696309081115621</v>
+        <v>0.4736451057944417</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4572299568592125</v>
+        <v>0.4722302431278033</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4565532448195974</v>
+        <v>0.4629100498862758</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>0.4521966305901524</v>
+        <v>0.4595988315396854</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4508788467990779</v>
+        <v>0.4588314677411235</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4483329383958612</v>
+        <v>0.4572645941803379</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0.4298541322570686</v>
+        <v>0.4534142645487924</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -1433,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="E57">
-        <v>0.4227769500465758</v>
+        <v>0.4501821883015839</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E58">
-        <v>0.4139510825221112</v>
+        <v>0.4476849343252466</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4042062914279055</v>
+        <v>0.4310577812901779</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,7 +1475,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -1484,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.401302423027628</v>
+        <v>0.40448412733996</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,7 +1492,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0.3967452819052558</v>
+        <v>0.3984400021401522</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3892494720807615</v>
+        <v>0.395211982144036</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3869899963621918</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3850667001436239</v>
+        <v>0.3892494720807615</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.3832657764100933</v>
+        <v>0.3849194047627998</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E67">
-        <v>0.3651483716701108</v>
+        <v>0.3825353101200255</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1617,10 +1617,10 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3631058272528684</v>
+        <v>0.3680543870805844</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1631,13 +1631,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3613745863741329</v>
+        <v>0.3632923077906115</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3535262316598268</v>
+        <v>0.3631058272528684</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
       <c r="E71">
-        <v>0.3523125375630624</v>
+        <v>0.3603749850782236</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3506465805917891</v>
+        <v>0.3599537175752975</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3461012803453412</v>
+        <v>0.3406188300282239</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3441772767271159</v>
+        <v>0.337099931231621</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E75">
-        <v>0.3416774379179597</v>
+        <v>0.3296238038164415</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3416774379179597</v>
+        <v>0.3265986323710904</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77">
-        <v>0.3331096591494688</v>
+        <v>0.3232651874054076</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3306160677442537</v>
+        <v>0.3215297460636073</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3280235602291593</v>
+        <v>0.3195952435139316</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3266601554506991</v>
+        <v>0.3186928012445552</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3166847902575639</v>
+        <v>0.3181992213861755</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3138702166988525</v>
+        <v>0.3107277331329326</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3133915852640043</v>
+        <v>0.307047770447858</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0.3120063854136614</v>
+        <v>0.2991521732158672</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3107277331329326</v>
+        <v>0.2983656967918548</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.3107277331329326</v>
+        <v>0.2958507274891667</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>26</v>
       </c>
       <c r="E87">
-        <v>0.3085911659569306</v>
+        <v>0.2948007965460381</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.3082517754825146</v>
+        <v>0.2945088907579647</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.300605812415889</v>
+        <v>0.2897480652939084</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.298036602850456</v>
+        <v>0.2856057894472027</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2936776854005134</v>
+        <v>0.2843898529124392</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.292336089950618</v>
+        <v>0.2827310631335453</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.2903352775185657</v>
+        <v>0.2822298348043303</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2899066732600865</v>
+        <v>0.2822269175247528</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2073,13 +2073,13 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>0.2873111184435894</v>
+        <v>0.2797834027411456</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E96">
-        <v>0.2844541857736068</v>
+        <v>0.2784816981335144</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>0.2825712758552169</v>
+        <v>0.2769661769018245</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.2814716417485749</v>
+        <v>0.2764682195744685</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2141,13 +2141,13 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>26</v>
       </c>
       <c r="E99">
-        <v>0.2718625401583118</v>
+        <v>0.2701248304255465</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2709358473453722</v>
+        <v>0.2698932617513458</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2690426539527664</v>
+        <v>0.2659224840351809</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2690426539527664</v>
+        <v>0.2658727613232742</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.2634735381099659</v>
+        <v>0.2641829364725937</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2226,13 +2226,13 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.262672353941402</v>
+        <v>0.2554762099001038</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2624871835558842</v>
+        <v>0.2537791306238826</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2620739170186037</v>
+        <v>0.2525501545843942</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2608649789210708</v>
+        <v>0.2515635453200933</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="E108">
-        <v>0.2583917726030289</v>
+        <v>0.2509791186788388</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2582066138454727</v>
+        <v>0.2504921942997713</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>0.2566221714183094</v>
+        <v>0.2480126677576512</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E111">
-        <v>0.2559812436202991</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>0.2546229100223829</v>
+        <v>0.2475538728919045</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2539383503024414</v>
+        <v>0.2467576080888412</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2534671933905999</v>
+        <v>0.2435720362969425</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2413,13 +2413,13 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
       </c>
       <c r="E115">
-        <v>0.2527750599958144</v>
+        <v>0.2432530272159865</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
       </c>
       <c r="E116">
-        <v>0.25191152466667</v>
+        <v>0.2397403997528724</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>0.2506920591219824</v>
+        <v>0.2380979787440759</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
       </c>
       <c r="E118">
-        <v>0.2500442654688908</v>
+        <v>0.2344732087299246</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2494337401888214</v>
+        <v>0.2320712759192873</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>0.2400631887128232</v>
+        <v>0.2316886999394958</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
       </c>
       <c r="E121">
-        <v>0.2380979787440759</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>0.23692340991199</v>
+        <v>0.2311888316118858</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2355300748436341</v>
+        <v>0.2299128645827939</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124">
-        <v>0.2344002745096569</v>
+        <v>0.2290385392431861</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,7 +2580,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
@@ -2589,7 +2589,7 @@
         <v>27</v>
       </c>
       <c r="E125">
-        <v>0.2341313726586149</v>
+        <v>0.2289527349448126</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
       </c>
       <c r="E126">
-        <v>0.233115939073729</v>
+        <v>0.2281646463059163</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2326571657533699</v>
+        <v>0.2268489906631667</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2313513347595482</v>
+        <v>0.2265520599728513</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2654,10 +2654,10 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2299810771428546</v>
+        <v>0.2253671004605264</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2668,13 +2668,13 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>0.2297680289602839</v>
+        <v>0.2252790111460002</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2295305839752617</v>
+        <v>0.2249411439771007</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E132">
-        <v>0.2274334044953962</v>
+        <v>0.2246101322358985</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133">
-        <v>0.2271765704422995</v>
+        <v>0.2245603491878084</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2256947183861128</v>
+        <v>0.2241941503660076</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E135">
-        <v>0.2256419320125075</v>
+        <v>0.224169731613975</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>0.2253817511186244</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2249655875129392</v>
+        <v>0.2234812268842853</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>29</v>
       </c>
       <c r="E138">
-        <v>0.2242085293144244</v>
+        <v>0.2225413697928771</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2240588498277448</v>
+        <v>0.2216790812534168</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2239461281953464</v>
+        <v>0.2213164703562575</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2234055217869848</v>
+        <v>0.2211171385648445</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,7 +2869,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>25</v>
@@ -2878,7 +2878,7 @@
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2229651105338319</v>
+        <v>0.2206313221854216</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2226534853346463</v>
+        <v>0.2203486886690114</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2223307889268457</v>
+        <v>0.2184414772763362</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2210494068405018</v>
+        <v>0.2176066344407894</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.21888206836656</v>
+        <v>0.2173004336732176</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0.21616202405998</v>
+        <v>0.2164961940232492</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2161315770343705</v>
+        <v>0.2162878477809261</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2157697365618616</v>
+        <v>0.2162615115349862</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2156525503833576</v>
+        <v>0.215625267732324</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2153507214968686</v>
+        <v>0.2135871822029592</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,7 +3039,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>24</v>
@@ -3048,7 +3048,7 @@
         <v>28</v>
       </c>
       <c r="E152">
-        <v>0.215154504754671</v>
+        <v>0.213543296201472</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>29</v>
       </c>
       <c r="E153">
-        <v>0.2130346641861983</v>
+        <v>0.2134033047573029</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
         <v>26</v>
       </c>
       <c r="E154">
-        <v>0.2118717122169411</v>
+        <v>0.2132974619345658</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3093,13 +3093,13 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>0.2116488959471033</v>
+        <v>0.2120012833633628</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2114652778790394</v>
+        <v>0.2092975072596341</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2111005947577446</v>
+        <v>0.2090737757631113</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E158">
-        <v>0.2110724783771077</v>
+        <v>0.2089367745536242</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.2081665999466132</v>
+        <v>0.2070323661376251</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.2080113365319897</v>
+        <v>0.2068338917791361</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.2068338917791361</v>
+        <v>0.2058325095130573</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2065551505141</v>
+        <v>0.2052368051104278</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.205867859237419</v>
+        <v>0.2050669908392254</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3246,13 +3246,13 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.2058442009052478</v>
+        <v>0.2049917380396204</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
       </c>
       <c r="E165">
-        <v>0.2052773209617254</v>
+        <v>0.2043599491322627</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D166" t="s">
         <v>29</v>
       </c>
       <c r="E166">
-        <v>0.204307001526625</v>
+        <v>0.2032350556785158</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
       </c>
       <c r="E167">
-        <v>0.2038535494633512</v>
+        <v>0.2026157949964833</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.2029176263843647</v>
+        <v>0.2018628970169645</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E169">
-        <v>0.2023402556534954</v>
+        <v>0.20147806063586</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.2016146545741879</v>
+        <v>0.1995594962024201</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171">
-        <v>0.2012047644971384</v>
+        <v>0.1995398774981426</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E172">
-        <v>0.1997907989513222</v>
+        <v>0.1981246863483054</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1995019223508661</v>
+        <v>0.1980319177059974</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1994500417510364</v>
+        <v>0.1971942028411089</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1977346082549907</v>
+        <v>0.1965381354592332</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E176">
-        <v>0.1963064959004127</v>
+        <v>0.1956184255320729</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1955767064682313</v>
+        <v>0.1955104050936984</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1931119979479488</v>
+        <v>0.1918161005170348</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3501,13 +3501,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1917853205941537</v>
+        <v>0.1907730487072866</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E180">
-        <v>0.1889464874696883</v>
+        <v>0.1881465679768373</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1876469942317785</v>
+        <v>0.1872180816207701</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
         <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1866842375799923</v>
+        <v>0.1872023331015118</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3569,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>0.1858468533983922</v>
+        <v>0.1855872467229778</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184">
-        <v>0.184961599583433</v>
+        <v>0.1852527688841906</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1842326540356262</v>
+        <v>0.1842300532958578</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3620,13 +3620,13 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1820988882056724</v>
+        <v>0.183470624165497</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1811496425030258</v>
+        <v>0.1817799567295149</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
         <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1798542028523683</v>
+        <v>0.181426778368926</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1793986876441123</v>
+        <v>0.1802416146513235</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1786207167671975</v>
+        <v>0.1794312022961612</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1783982094852058</v>
+        <v>0.1786349656358934</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1782417014895213</v>
+        <v>0.1783554246437604</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
       </c>
       <c r="E193">
-        <v>0.178008031484723</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.1778672481964267</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.1778257177746448</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E196">
-        <v>0.177566490597797</v>
+        <v>0.1757621982677492</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1737442799919811</v>
+        <v>0.1747889196655489</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1717533476613668</v>
+        <v>0.173954158401203</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1711780008952294</v>
+        <v>0.1733733602106248</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1708243894282695</v>
+        <v>0.1728494670195482</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1700115846120115</v>
+        <v>0.1720551083113477</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
         <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1692245147793351</v>
+        <v>0.1718359742636731</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1661266610736887</v>
+        <v>0.1690308509457035</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1648280963347977</v>
+        <v>0.1657939171081857</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3943,13 +3943,13 @@
         <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1636541680515007</v>
+        <v>0.1649700696498475</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1627150823448514</v>
+        <v>0.1647386808576045</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E207">
-        <v>0.1623238093271243</v>
+        <v>0.1632993161855451</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1622966237940125</v>
+        <v>0.1628091720598887</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E209">
-        <v>0.1605120218214907</v>
+        <v>0.1601884998233612</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
         <v>28</v>
       </c>
       <c r="E210">
-        <v>0.160350237412718</v>
+        <v>0.1597043344855779</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
         <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1535292380737788</v>
+        <v>0.1571009094651703</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E212">
-        <v>0.1530901727234593</v>
+        <v>0.1554756729076975</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1527787592796769</v>
+        <v>0.1553795918626512</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1523781752342674</v>
+        <v>0.1534526388033932</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1519773095278905</v>
+        <v>0.1534514437615074</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1512995428479381</v>
+        <v>0.1530320501241318</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E217">
-        <v>0.1502835013001332</v>
+        <v>0.1523747277419892</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4164,13 +4164,13 @@
         <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E218">
-        <v>0.1498175267884628</v>
+        <v>0.1521765913957621</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D219" t="s">
         <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1497424739372856</v>
+        <v>0.1513988264808791</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1496266533656807</v>
+        <v>0.1511324402094333</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E221">
-        <v>0.1468607572414015</v>
+        <v>0.1509752237884109</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1444500090792757</v>
+        <v>0.1505151204207719</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1436247872949017</v>
+        <v>0.1493791908563327</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1428338869528963</v>
+        <v>0.1493476821502999</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E225">
-        <v>0.1421692522663102</v>
+        <v>0.1479579783795873</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1414478397315811</v>
+        <v>0.1467275972647217</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E227">
-        <v>0.141213989093266</v>
+        <v>0.1456836440695746</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1411130208175207</v>
+        <v>0.14545637781252</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1410623394601792</v>
+        <v>0.1449231713472268</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1406948051462702</v>
+        <v>0.1436914686327398</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4385,13 +4385,13 @@
         <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E231">
-        <v>0.1400177242443599</v>
+        <v>0.1436824535548248</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E232">
-        <v>0.1393028851672885</v>
+        <v>0.1432358040997882</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E233">
-        <v>0.1381896043019469</v>
+        <v>0.1428338869528963</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E234">
-        <v>0.138157865576025</v>
+        <v>0.1424449900175329</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E235">
-        <v>0.1378483818776025</v>
+        <v>0.1421245322478924</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1369323716015703</v>
+        <v>0.1418107855173056</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D237" t="s">
         <v>28</v>
       </c>
       <c r="E237">
-        <v>0.1366340807585333</v>
+        <v>0.1417035860709675</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4504,13 +4504,13 @@
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D238" t="s">
         <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1365765962550144</v>
+        <v>0.141401674872967</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1362182436123307</v>
+        <v>0.1413417710301342</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1361898193395296</v>
+        <v>0.1410424646701775</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E241">
-        <v>0.1360118256495467</v>
+        <v>0.1405327934833671</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D242" t="s">
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1354207936453897</v>
+        <v>0.1401791152825979</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,7 +4586,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
         <v>25</v>
@@ -4595,7 +4595,7 @@
         <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1349871495833011</v>
+        <v>0.1399939854981687</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D244" t="s">
         <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1349045726134745</v>
+        <v>0.1393795465318802</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1346524098143481</v>
+        <v>0.1383936052497252</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E246">
-        <v>0.1337635816941654</v>
+        <v>0.1378705501040131</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4657,13 +4657,13 @@
         <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E247">
-        <v>0.1335527574181195</v>
+        <v>0.1364777264414265</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4677,10 +4677,10 @@
         <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E248">
-        <v>0.1330313321905566</v>
+        <v>0.1364232670268987</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1329049211716998</v>
+        <v>0.1364067754290011</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1328097738628576</v>
+        <v>0.136341246152314</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D251" t="s">
         <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1327774825069484</v>
+        <v>0.1360945606229231</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1314498670251906</v>
+        <v>0.1360420538571142</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1306015576353183</v>
+        <v>0.1352123629124397</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D254" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E254">
-        <v>0.1302116418958016</v>
+        <v>0.1349655402639187</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C255" t="s">
         <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1301644826137558</v>
+        <v>0.1342023026478155</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,7 +4807,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C256" t="s">
         <v>22</v>
@@ -4816,7 +4816,7 @@
         <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1300845989238394</v>
+        <v>0.1340109169562874</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1296974562145816</v>
+        <v>0.1330443974251432</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
         <v>24</v>
       </c>
       <c r="D258" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.129640744710433</v>
+        <v>0.132809475718492</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
         <v>20</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1295588577194598</v>
+        <v>0.132754377508762</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,7 +4875,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C260" t="s">
         <v>19</v>
@@ -4884,7 +4884,7 @@
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1294905476048223</v>
+        <v>0.132489332579896</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,7 +4892,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C261" t="s">
         <v>21</v>
@@ -4901,7 +4901,7 @@
         <v>28</v>
       </c>
       <c r="E261">
-        <v>0.1288823025402202</v>
+        <v>0.1307678813076802</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E262">
-        <v>0.1284471095466503</v>
+        <v>0.1304368612852012</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4929,13 +4929,13 @@
         <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
         <v>26</v>
       </c>
       <c r="E263">
-        <v>0.1283787001265299</v>
+        <v>0.1303156109462269</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E264">
-        <v>0.1276362269275321</v>
+        <v>0.1293247538642121</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D265" t="s">
         <v>28</v>
       </c>
       <c r="E265">
-        <v>0.1275191938079363</v>
+        <v>0.1290378072167041</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>0.1271425276475178</v>
+        <v>0.1285836762886607</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
         <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1264712021218398</v>
+        <v>0.1273240401409458</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5014,13 +5014,13 @@
         <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1264044700972765</v>
+        <v>0.1266749956331188</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D269" t="s">
         <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1262030812432655</v>
+        <v>0.1260271619689468</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D270" t="s">
         <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1256019063619349</v>
+        <v>0.1259841051611997</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1252292741202884</v>
+        <v>0.1257175474427272</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D272" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1251516287391284</v>
+        <v>0.1254077474775181</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1251131314595643</v>
+        <v>0.1253385016425123</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E274">
-        <v>0.1245812307861145</v>
+        <v>0.1247535009552545</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C275" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D275" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1244445585311265</v>
+        <v>0.1241417833933606</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,7 +5147,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
         <v>21</v>
@@ -5156,7 +5156,7 @@
         <v>28</v>
       </c>
       <c r="E276">
-        <v>0.1235846702578278</v>
+        <v>0.1232133409718158</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
       </c>
       <c r="E277">
-        <v>0.123387887748432</v>
+        <v>0.1230523371555666</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D278" t="s">
         <v>27</v>
       </c>
       <c r="E278">
-        <v>0.1230965777198759</v>
+        <v>0.1230484745562198</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D279" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E279">
-        <v>0.1230302982954544</v>
+        <v>0.122845042571143</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E280">
-        <v>0.1226913881726148</v>
+        <v>0.1228105824365612</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D281" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E281">
-        <v>0.122493531184067</v>
+        <v>0.1223101996944103</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1224663688354031</v>
+        <v>0.1217130549866722</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5269,13 +5269,13 @@
         <v>14</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.121757204766332</v>
+        <v>0.1216914197671005</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D284" t="s">
         <v>29</v>
       </c>
       <c r="E284">
-        <v>0.1214244942657759</v>
+        <v>0.1210234320916969</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5303,13 +5303,13 @@
         <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D285" t="s">
         <v>28</v>
       </c>
       <c r="E285">
-        <v>0.1211909319113181</v>
+        <v>0.1208441166554174</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D286" t="s">
         <v>26</v>
       </c>
       <c r="E286">
-        <v>0.1210836124102098</v>
+        <v>0.1207351075883273</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1205300278572175</v>
+        <v>0.1195285894243674</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E288">
-        <v>0.1201658791543915</v>
+        <v>0.1192957039949756</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
         <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1189216797098375</v>
+        <v>0.1171872362832938</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E290">
-        <v>0.116673871385324</v>
+        <v>0.1144931857455766</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C291" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
         <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1164765307174562</v>
+        <v>0.1141867703510794</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,7 +5419,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C292" t="s">
         <v>24</v>
@@ -5428,7 +5428,7 @@
         <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1160244779058571</v>
+        <v>0.1141343804341229</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
@@ -5445,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1154581576135293</v>
+        <v>0.1140272120988793</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D294" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E294">
-        <v>0.1142340915134441</v>
+        <v>0.1135605170333236</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1141156336136591</v>
+        <v>0.11303578830065</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.1135779470548667</v>
+        <v>0.1128130689080595</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1133515533092086</v>
+        <v>0.1123945949736625</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,7 +5521,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C298" t="s">
         <v>22</v>
@@ -5530,7 +5530,7 @@
         <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1126663611994736</v>
+        <v>0.1120469602027306</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E299">
-        <v>0.1124441445968336</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C300" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E300">
-        <v>0.112381614351254</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1121638160919618</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C302" t="s">
         <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E302">
-        <v>0.1118037315585031</v>
+        <v>0.1116797043135649</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
         <v>27</v>
       </c>
       <c r="E303">
-        <v>0.1117475390669186</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5626,13 +5626,13 @@
         <v>12</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1117475390669186</v>
+        <v>0.1107476097888765</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D305" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E305">
-        <v>0.1117475390669186</v>
+        <v>0.1105225118376112</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E306">
-        <v>0.1116834894868598</v>
+        <v>0.1102194973491893</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1115008180796557</v>
+        <v>0.1100954390958812</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1114300583880777</v>
+        <v>0.1098083504328317</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C309" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1102194973491893</v>
+        <v>0.1096795723076213</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,7 +5725,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C310" t="s">
         <v>21</v>
@@ -5734,7 +5734,7 @@
         <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1085651550336056</v>
+        <v>0.1092096553346948</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E311">
-        <v>0.1084300927798317</v>
+        <v>0.1089139827387181</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D312" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E312">
-        <v>0.1084300927798317</v>
+        <v>0.1076399084180044</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5779,13 +5779,13 @@
         <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D313" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E313">
-        <v>0.1084300927798317</v>
+        <v>0.1073468352523761</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D314" t="s">
         <v>27</v>
       </c>
       <c r="E314">
-        <v>0.1082977149423219</v>
+        <v>0.1072500536250404</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
         <v>24</v>
       </c>
       <c r="D315" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E315">
-        <v>0.108270019118906</v>
+        <v>0.1072130794897275</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.1082178076045498</v>
+        <v>0.1069361179165932</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D317" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E317">
-        <v>0.1073821990482963</v>
+        <v>0.1057458714345417</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E318">
-        <v>0.1072500536250404</v>
+        <v>0.1054707835333766</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,7 +5878,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
         <v>18</v>
@@ -5887,7 +5887,7 @@
         <v>29</v>
       </c>
       <c r="E319">
-        <v>0.1070721881234379</v>
+        <v>0.1054293668458138</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5898,13 +5898,13 @@
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D320" t="s">
         <v>28</v>
       </c>
       <c r="E320">
-        <v>0.1065801910549766</v>
+        <v>0.1041100764818575</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.1062699639268099</v>
+        <v>0.1036903940614264</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D322" t="s">
         <v>26</v>
       </c>
       <c r="E322">
-        <v>0.1056638100405537</v>
+        <v>0.1032768346687029</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5949,13 +5949,13 @@
         <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D323" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1054324269649945</v>
+        <v>0.1030986483936437</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
         <v>25</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E324">
-        <v>0.1035010257571792</v>
+        <v>0.1029434094562986</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C325" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.1033856211313433</v>
+        <v>0.1014803277279781</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
         <v>26</v>
       </c>
       <c r="E326">
-        <v>0.1030832230611014</v>
+        <v>0.1013561367486182</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D327" t="s">
         <v>28</v>
       </c>
       <c r="E327">
-        <v>0.1022411668152372</v>
+        <v>0.1012938146640362</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.100969607797776</v>
+        <v>0.1009716640569202</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.1009191022565377</v>
+        <v>0.1001947450874241</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.1002016910936798</v>
+        <v>0.09944176758091672</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C331" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D331" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>0.09999015292447352</v>
+        <v>0.09824676299737529</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D332" t="s">
         <v>26</v>
       </c>
       <c r="E332">
-        <v>0.09939958656522214</v>
+        <v>0.09782866836196803</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C333" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09775509392411445</v>
+        <v>0.09766567720299507</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09772514191692905</v>
+        <v>0.09557527862509856</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6153,13 +6153,13 @@
         <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E335">
-        <v>0.09742145793365446</v>
+        <v>0.09553326287572517</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09493563547783675</v>
+        <v>0.09381436316411614</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D337" t="s">
         <v>26</v>
       </c>
       <c r="E337">
-        <v>0.09453834646558623</v>
+        <v>0.09366340492167399</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.09429759124090936</v>
+        <v>0.09238130181114605</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.09311010993216733</v>
+        <v>0.09231753455808087</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,7 +6235,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
         <v>23</v>
@@ -6244,7 +6244,7 @@
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09226605299803582</v>
+        <v>0.0916327595599373</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C341" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E341">
-        <v>0.09115407374410561</v>
+        <v>0.09039278759289791</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C342" t="s">
         <v>24</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.09048278567177276</v>
+        <v>0.0876228624263958</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D343" t="s">
         <v>26</v>
       </c>
       <c r="E343">
-        <v>0.09028871024732647</v>
+        <v>0.08629838965440487</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D344" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.09015806041560716</v>
+        <v>0.08592306076410096</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E345">
-        <v>0.09002958617866533</v>
+        <v>0.08289698684425302</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E346">
-        <v>0.09002383751738903</v>
+        <v>0.08237361233254552</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D347" t="s">
         <v>26</v>
       </c>
       <c r="E347">
-        <v>0.0893516029491901</v>
+        <v>0.08127860940927216</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.08742325912499478</v>
+        <v>0.08103525258497979</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
         <v>26</v>
       </c>
       <c r="E349">
-        <v>0.08473343573498301</v>
+        <v>0.07849725158679259</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D350" t="s">
         <v>28</v>
       </c>
       <c r="E350">
-        <v>0.08292786767145552</v>
+        <v>0.07842750583129154</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.0792679973652434</v>
+        <v>0.078131854684446</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C352" t="s">
         <v>21</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.07854527680028486</v>
+        <v>0.07799783313746719</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E353">
-        <v>0.07794086001391359</v>
+        <v>0.07789336656087302</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
         <v>26</v>
       </c>
       <c r="E354">
-        <v>0.07770664265540632</v>
+        <v>0.07742739088571873</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D355" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07720645606397324</v>
+        <v>0.0767369529913708</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D356" t="s">
         <v>29</v>
       </c>
       <c r="E356">
-        <v>0.07696867196691641</v>
+        <v>0.07666384998551024</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C357" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.07663356318785775</v>
+        <v>0.07664584754553322</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C358" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E358">
-        <v>0.07588534810691441</v>
+        <v>0.07497170628541365</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6561,13 +6561,13 @@
         <v>14</v>
       </c>
       <c r="C359" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
         <v>26</v>
       </c>
       <c r="E359">
-        <v>0.07570476083397734</v>
+        <v>0.07342620888990108</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6578,13 +6578,13 @@
         <v>6</v>
       </c>
       <c r="C360" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07536219210839276</v>
+        <v>0.07331986977267733</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D361" t="s">
         <v>29</v>
       </c>
       <c r="E361">
-        <v>0.07446014160139895</v>
+        <v>0.07324486056648141</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C362" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D362" t="s">
         <v>26</v>
       </c>
       <c r="E362">
-        <v>0.07337630883986526</v>
+        <v>0.07240063787635852</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C363" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.07113982532441221</v>
+        <v>0.06885995233335368</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6646,13 +6646,13 @@
         <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E364">
-        <v>0.07104308209282602</v>
+        <v>0.06750464980741887</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D365" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E365">
-        <v>0.07045428365072098</v>
+        <v>0.06668401707361653</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D366" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E366">
-        <v>0.07020495367127842</v>
+        <v>0.06637581128982784</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C367" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D367" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06984397795453509</v>
+        <v>0.06594676740091343</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C368" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E368">
-        <v>0.06921132155435027</v>
+        <v>0.06575494607529686</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E369">
-        <v>0.068715564314931</v>
+        <v>0.06500108050376824</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D370" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E370">
-        <v>0.06813790104594741</v>
+        <v>0.06439255407873895</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C371" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D371" t="s">
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.0678869878198658</v>
+        <v>0.06331643529843281</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C372" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.06735208112960836</v>
+        <v>0.06138880391498707</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E373">
-        <v>0.06425105697636758</v>
+        <v>0.06039461011953281</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D374" t="s">
         <v>28</v>
       </c>
       <c r="E374">
-        <v>0.0633630406792729</v>
+        <v>0.06031911635335328</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.06302905846204404</v>
+        <v>0.05998929655576415</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6856,7 +6856,7 @@
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.05310526875557447</v>
+        <v>0.05652327833265233</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D377" t="s">
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.05299801070387058</v>
+        <v>0.05630827772460548</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.05185353884532959</v>
+        <v>0.04698088476404903</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.04665129365059226</v>
+        <v>0.04456870723703393</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C380" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E380">
-        <v>0.0462497290062871</v>
+        <v>0.03673925773773331</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C381" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.04439066434587451</v>
+        <v>0.02544810489316473</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04260521721717026</v>
+        <v>0.002572899146463304</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6969,13 +6969,13 @@
         <v>17</v>
       </c>
       <c r="C383" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D383" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E383">
-        <v>0.03626571148030337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C384" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.02758710466262721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.02640585064417568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C386" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D386" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386">
-        <v>0.02601159971456389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,16 +7034,16 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C387" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E387">
-        <v>0.01161028126164659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,7 +7068,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
         <v>25</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,7 +7102,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
         <v>25</v>
@@ -7119,7 +7119,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C392" t="s">
         <v>21</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C393" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C394" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C395" t="s">
         <v>21</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C396" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,10 +7204,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,7 +7221,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C398" t="s">
         <v>25</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,7 +7255,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C400" t="s">
         <v>21</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C401" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C403" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,7 +7340,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C405" t="s">
         <v>21</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C406" t="s">
         <v>21</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C407" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C409" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C411" t="s">
         <v>21</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,7 +7476,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C413" t="s">
         <v>25</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C414" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7513,7 +7513,7 @@
         <v>7</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C416" t="s">
         <v>25</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
